--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="296">
   <si>
     <t>Property</t>
   </si>
@@ -474,7 +474,13 @@
     <t>これは、検索、並べ替え、および表示の目的で使用される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>診断サービスセクションのコード。 / Codes for diagnostic service sections.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
     <t>OBR-24</t>
@@ -913,9 +919,6 @@
   </si>
   <si>
     <t>すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、独自の構造を提供する必要がある。</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>レポートの補助として提供される診断コード。 / Diagnosis codes provided as adjuncts to the report.</t>
@@ -2737,11 +2740,13 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
@@ -2777,25 +2782,25 @@
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2817,13 +2822,13 @@
         <v>141</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2853,7 +2858,7 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
@@ -2871,7 +2876,7 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>51</v>
@@ -2886,28 +2891,28 @@
         <v>63</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2926,19 +2931,19 @@
         <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -2987,7 +2992,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3002,28 +3007,28 @@
         <v>63</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3042,19 +3047,19 @@
         <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3103,7 +3108,7 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3118,28 +3123,28 @@
         <v>63</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3158,19 +3163,19 @@
         <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>41</v>
@@ -3219,7 +3224,7 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3234,28 +3239,28 @@
         <v>63</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3274,19 +3279,19 @@
         <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>41</v>
@@ -3335,7 +3340,7 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3353,25 +3358,25 @@
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3390,19 +3395,19 @@
         <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
@@ -3451,7 +3456,7 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3466,28 +3471,28 @@
         <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3506,19 +3511,19 @@
         <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>41</v>
@@ -3567,7 +3572,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -3582,24 +3587,24 @@
         <v>63</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3622,19 +3627,19 @@
         <v>41</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
@@ -3683,7 +3688,7 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -3701,10 +3706,10 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3712,14 +3717,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3738,19 +3743,19 @@
         <v>41</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
@@ -3799,7 +3804,7 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -3817,10 +3822,10 @@
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -3828,10 +3833,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3854,16 +3859,16 @@
         <v>41</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3913,7 +3918,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -3934,7 +3939,7 @@
         <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -3942,14 +3947,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3968,19 +3973,19 @@
         <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4029,7 +4034,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4047,10 +4052,10 @@
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4058,10 +4063,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4084,13 +4089,13 @@
         <v>41</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4141,7 +4146,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4162,7 +4167,7 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
@@ -4170,10 +4175,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4202,7 +4207,7 @@
         <v>98</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>100</v>
@@ -4255,7 +4260,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4276,7 +4281,7 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -4284,14 +4289,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4313,10 +4318,10 @@
         <v>97</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>100</v>
@@ -4371,7 +4376,7 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4400,10 +4405,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4426,19 +4431,19 @@
         <v>41</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -4487,7 +4492,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4508,7 +4513,7 @@
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -4516,10 +4521,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4542,13 +4547,13 @@
         <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4599,7 +4604,7 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>51</v>
@@ -4620,7 +4625,7 @@
         <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -4628,14 +4633,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4654,17 +4659,17 @@
         <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -4713,7 +4718,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -4731,10 +4736,10 @@
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -4742,10 +4747,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4771,13 +4776,13 @@
         <v>141</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4803,13 +4808,13 @@
         <v>41</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>284</v>
+        <v>145</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>41</v>
@@ -4827,7 +4832,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -4845,10 +4850,10 @@
         <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -4856,10 +4861,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4882,19 +4887,19 @@
         <v>41</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>41</v>
@@ -4943,7 +4948,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -4961,10 +4966,10 @@
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
